--- a/data/raw/ipap_rate.xlsx
+++ b/data/raw/ipap_rate.xlsx
@@ -1,37 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>FK_Unidad</t>
+  </si>
+  <si>
+    <t>FK_Escala</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>EOT16057</t>
+  </si>
+  <si>
+    <t>EOT16058</t>
+  </si>
+  <si>
+    <t>EOT8078</t>
+  </si>
+  <si>
+    <t>EOT8079</t>
+  </si>
+  <si>
+    <t>EOT8080</t>
+  </si>
+  <si>
+    <t>EOT8081</t>
+  </si>
+  <si>
+    <t>EOT8082</t>
+  </si>
+  <si>
+    <t>EOT8083</t>
+  </si>
+  <si>
+    <t>Nacional. Total tarifa. Dato base.</t>
+  </si>
+  <si>
+    <t>Nacional. Total tarifa. Tasa de variación interanual.</t>
+  </si>
+  <si>
+    <t>Nacional. Tarifa normal. Dato base.</t>
+  </si>
+  <si>
+    <t>Nacional. Tarifa normal. Tasa de variación interanual.</t>
+  </si>
+  <si>
+    <t>Nacional. Tarifa fin de semana. Dato base.</t>
+  </si>
+  <si>
+    <t>Nacional. Tarifa fin de semana. Tasa de variación interanual.</t>
+  </si>
+  <si>
+    <t>Nacional. Tarifa touroperador. Dato base.</t>
+  </si>
+  <si>
+    <t>Nacional. Tarifa touroperador. Tasa de variación interanual.</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 159.83, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 188.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 157.63, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 132.17, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 133.25, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 124.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 133.56, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 133.81, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 132.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 143.43, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 171.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 168.2, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 143.08, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 166.01, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 138.5, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 115.57, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 114.52, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 117.12, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 121.32, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 119.08, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 115.09, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 127.99, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 154.79, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 153.5, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 138.11, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 129.39, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 137.63, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 135.37, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 135.84, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 134.8, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 144.24, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 170.34, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 165.99, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 150.46, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 137.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 135.53, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 137.36, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 134.56, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 143.26, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 166.89, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 164.72, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 148.93, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 138.14, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 127.82, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 127.07, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 132.55, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 131.52, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 132.83, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 131.49, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 130.15, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 139.62, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 163.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 160.33, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 145.27, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 133.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 127.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 118.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 124.73, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 121.51, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 122.47, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 120.92, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 132.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 155.08, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 150.37, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 136.5, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 125.4, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 118.21, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 114.91, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 119.34, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 116.85, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 119.64, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 115.71, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 116.93, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 124.31, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 146.93, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 141.9, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 129.61, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 119.49, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 114.15, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 108.43, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 113.37, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 110.85, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 111.05, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 119.98, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 143.32, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 137.65, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 123.78, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 112.48, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.64, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.89, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 106.72, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 135.97, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 131.81, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 117.98, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.39, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 103.51, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 107.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.64, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 130.5, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.76, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 107.76, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 108.28, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 103.87, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 107.13, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.36, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 109.79, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 105.43, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 131.65, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.13, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 112.18, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 103.61, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 107.79, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 102.73, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 103.62, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 107.24, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 104.13, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.06, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 129.67, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.93, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 104.65, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 106.17, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.54, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 102.06, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 104.86, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 105.89, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.83, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 128.48, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.67, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 114.04, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 109.23, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 105.39, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 109.02, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 116.12, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 129.7, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 116.13, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 112.27, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 109.03, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 106.96, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 105.23, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 107.92, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 106.86, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.84, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 119.63, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 113.43, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 107.8, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.41, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 103.69, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 103.17, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 106.04, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 109.85, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.6, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 114.66, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.42, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.81, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 101.79, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.41, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.57, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 104.35, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.95, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 99.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 101.48, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.61, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.15, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.7, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.51, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 13.81, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.36, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 16.35, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.54, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 10.09, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 12.37, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 15.19, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.06, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.57, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.26, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -10.68, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.79, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -13.48, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -12.2, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -12.34, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -14.62, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.26, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.13, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -7.53, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -8.21, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 1.94, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 0.68, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.07, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.78, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 1.03, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.12, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.41, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 3.8200000000000003, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 7.46, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 8.23, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 8.46, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 7.03, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 5.04, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.23, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.62, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 6.43, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.48, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.36, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 6.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.54, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 4.95, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.98, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 4.78, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 4.38, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 3.61, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 3.09, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 4.71, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 6.23, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.17, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.7800000000000002, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 4.47, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 6.36, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.91, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.87, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.39, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 5.4, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.92, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -0.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -0.22, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 1.4100000000000001, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 1.83, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.92, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 0.59, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.34, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.31, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.5, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.1, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 1.6800000000000002, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.99, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 0.18, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.2800000000000002, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -1.08, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -3.87, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -4.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -4.41, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.5300000000000002, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.31, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.33, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.69, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.8, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.87, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 6.59, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 1.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.77, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 1.19, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 6.18, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.34, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 4.53, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.83, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 2.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 1.57, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.5600000000000005, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.59, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.37, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.01, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 1.04, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.57, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.01, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 153.75, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 148.23, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 153.59, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 116.35, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 126.77, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.22, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 129.33, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 125.62, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 132.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 152.97, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 150.83, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 136.25, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 129.53, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 134.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 101.8, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 105.98, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 109.42, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 117.69, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 112.37, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 106.15, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 117.13, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 137.97, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 139.97, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 126.22, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 121.15, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 130.24, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 124.86, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 125.3, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 133.79, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 151.94, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 152.88, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 141.39, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 127.92, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 111.17, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 129.86, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 124.43, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 132.97, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 127.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 124.51, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 131.36, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 148.72, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 151.16, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 140.44, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 129.43, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 123.38, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 112.84, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 126.89, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 128.47, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 124.53, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 124.8, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 129.75, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 149.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 150.95, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.9, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 105.77, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 121.47, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 116.02, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.28, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.39, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 117.55, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 124.25, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 141.0, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 141.7, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 131.94, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 120.8, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 115.75, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 111.99, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 117.06, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 117.53, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 134.37, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 134.79, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 126.58, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 117.11, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 112.58, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 99.66, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 112.12, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 115.07, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 114.72, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 122.25, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.94, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 112.14, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 96.6, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 107.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.07, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.47, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 127.79, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 127.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 118.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.33, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 107.55, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 97.57, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 108.16, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.29, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 114.75, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 106.73, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 110.2, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 128.45, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 129.09, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 117.4, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 110.16, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 112.77, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 100.17, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 108.07, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 108.61, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 109.17, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 128.7, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 115.01, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 105.72, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 112.93, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 98.75, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 105.47, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 111.56, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 107.4, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 109.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 108.46, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 127.06, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 127.39, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 113.71, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 101.45, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 104.01, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 104.49, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 108.95, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 108.44, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 111.88, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 112.29, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 126.36, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 125.7, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 116.31, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 111.4, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 114.59, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 106.92, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 106.43, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 109.45, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 112.69, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 114.51, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 128.08, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.34, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 118.37, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 115.47, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 115.4, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 109.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 108.27, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.14, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 113.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 115.25, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 121.92, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 117.33, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 111.82, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 112.99, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 106.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 104.79, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 108.18, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.9, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 109.25, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 115.68, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 116.99, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 113.82, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 111.35, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 109.77, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 103.74, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.12, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.32, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 103.76, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 103.79, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.29, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 109.36, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 105.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 100.48, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 102.76, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 100.36, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 99.18, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 12.84, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 14.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 14.23, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.29, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 19.62, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 11.79, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 19.89, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 13.39, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 7.8100000000000005, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 6.15, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -8.05, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -9.68, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -9.63, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -10.0, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -15.28, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -12.45, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.19, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.44, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -6.74, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': -2.64, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': -2.05, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': -1.69, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.63, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 1.8399999999999999, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 2.66, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.32, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.5, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 1.98, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 1.24, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -0.32, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 6.68, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 4.46, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 6.8100000000000005, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 7.92, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.8100000000000005, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.53, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 5.85, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.04, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 0.97, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 5.72, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 4.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 4.24, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.12, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.82, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 1.73, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 1.75, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 2.45, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 3.54, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 0.39, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 2.71, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 3.18, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.25, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.7800000000000002, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -1.0, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.21, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -3.27, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -0.85, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.4, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 0.72, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.31, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -1.67, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -4.63, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -2.59, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.75, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': -1.03, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -1.6600000000000001, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.19, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 0.44, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.21, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.7199999999999998, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 0.58, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.66, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.29, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 1.37, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': -0.6900000000000001, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.67, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 1.15, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.4, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.96, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -2.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -3.42, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.55, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.34, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -2.46, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -3.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -0.76, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -1.82, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.77, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -1.94, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -1.34, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.1, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.74, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -3.52, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -0.7000000000000001, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -3.2, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.7000000000000002, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': -0.64, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 4.98, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 5.46, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 3.02, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 5.28, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 7.6, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 6.69, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 9.24, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 3.1, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 2.55, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.48, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -0.97, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 129.17, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 141.69, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 137.32, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 131.4, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 116.6, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.03, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 117.94, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 111.41, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 133.86, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 146.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 129.23, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 120.11, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 127.71, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 126.06, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 118.87, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 109.55, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 108.52, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 102.43, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 131.63, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 117.21, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 128.05, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 124.34, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 125.39, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 120.23, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 132.21, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 134.15, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 146.98, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 128.41, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 129.64, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 135.14, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 116.51, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 121.44, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 122.32, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 118.6, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 131.59, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 134.42, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 144.85, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 128.36, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 123.92, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 130.4, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 119.55, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 122.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 118.43, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 122.82, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 131.78, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 133.28, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 146.62, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 127.59, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 122.3, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.09, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 115.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 123.97, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 118.27, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.34, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.46, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 130.3, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 121.41, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 138.4, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 119.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 124.61, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 119.45, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 118.62, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 121.25, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 113.5, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 114.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 118.8, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 130.64, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 120.43, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 115.08, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 110.3, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 116.67, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 109.53, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 110.58, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 118.32, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 116.64, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 127.3, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 111.26, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 109.49, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.55, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 111.18, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 102.12, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 111.52, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 107.96, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 106.45, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 106.52, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 109.69, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 109.57, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 112.66, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 104.23, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 112.4, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 102.58, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 122.36, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 109.5, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 110.18, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 115.69, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 110.32, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 110.09, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 101.86, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 112.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 104.82, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 122.5, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 114.81, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 106.67, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 109.01, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 111.22, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 117.62, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 114.8, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 113.26, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 105.7, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 115.79, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 107.86, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 122.4, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 115.41, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.49, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.46, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 108.15, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 114.26, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 113.8, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 112.85, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 113.03, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 114.27, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 108.38, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 118.47, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 106.61, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.67, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 117.73, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 119.14, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 118.67, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 106.18, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 118.79, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 115.38, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 111.74, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 114.24, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 119.95, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 121.14, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 120.45, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.78, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.11, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 116.23, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 110.03, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 117.59, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 112.65, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 104.51, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.51, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 111.16, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 112.68, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 110.93, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.3, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 110.21, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 104.64, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 105.71, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.59, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 111.63, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 111.49, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 110.69, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 107.44, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 111.25, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 111.24, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 114.07, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 110.9, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.04, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.15, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 107.02, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 108.4, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 10.94, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 8.94, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 10.54, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 6.44, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.0, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 12.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 8.76, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 11.55, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 10.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.19, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 1.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -14.45, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -12.72, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -16.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -14.8, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -16.89, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.55, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -10.44, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.72, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -10.63, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.51, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.47000000000000003, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.04, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.84, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': -2.02, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.15, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 0.86, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -1.21, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.61, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 2.73, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 3.14, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': -1.43, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 1.13, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 9.77, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.93, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 7.34, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 2.49, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 3.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': -2.85, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 4.69, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.9699999999999998, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 4.64, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 7.5600000000000005, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.8, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 3.63, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.92, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 1.32, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.96, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.11, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 1.51, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': -0.54, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 2.27, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 7.69, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.06, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.85, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.8, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -4.44, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -1.31, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -2.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.78, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 5.59, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': -2.47, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.68, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': -2.14, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.11, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': -5.64, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 2.37, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 2.7, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': -0.9400000000000001, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': -3.9, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': -3.64, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': -2.8200000000000003, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': -0.77, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.46, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 0.8, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.66, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -0.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 0.8300000000000001, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -1.11, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -2.55, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.94, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -4.49, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -4.9, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.01, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.81, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -3.81, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.18, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -2.9, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -3.85, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -6.03, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.75, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -2.86, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.85, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.65, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 1.02, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 3.76, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 2.43, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 5.67, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 6.93, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 7.91, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 7.5, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 6.03, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 0.65, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': -0.91, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 0.03, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': -0.81, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 2.88, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.45, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': -0.28, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 2.01, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 5.37, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 2.14, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 6.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 8.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.91, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 1.48, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 0.99, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 173.13, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 227.61, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 170.31, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 146.24, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 137.58, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 133.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 138.97, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 143.75, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 134.6, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 150.93, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 196.63, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 195.04, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 154.63, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 200.95, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 146.03, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 122.67, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 126.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 125.07, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 138.72, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 178.11, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 172.75, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 147.51, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 144.79, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 146.91, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 145.53, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 145.89, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 145.18, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 144.86, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 154.37, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 195.25, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 184.36, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 162.35, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 148.27, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 139.64, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 141.15, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 140.62, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 143.0, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 141.55, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 140.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 154.68, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 191.28, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 183.4, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 161.27, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 148.89, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 134.72, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 138.27, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 138.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 139.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 137.72, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 137.42, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 136.08, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 148.7, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 180.37, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 173.22, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 155.84, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 140.24, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 127.52, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 125.59, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 124.85, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 125.34, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 125.33, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 141.68, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 172.71, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 162.48, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 143.31, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 131.0, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 121.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 121.38, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 120.55, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 120.53, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 119.46, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 119.82, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 130.41, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 162.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 151.83, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 135.25, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 122.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 116.73, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 114.13, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 114.7, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 114.17, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.73, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 112.81, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 112.72, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 124.32, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 157.49, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 145.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 127.38, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 114.29, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 109.51, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 109.18, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.87, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 108.13, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 108.19, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 118.57, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 146.26, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 137.87, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 119.25, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 104.73, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 106.8, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.1, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 108.01, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.63, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.05, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 113.72, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 140.06, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 134.03, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.83, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 106.68, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 105.69, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 106.79, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 108.17, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 104.92, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 104.36, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 111.39, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 135.46, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.69, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 111.09, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 104.58, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.38, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 102.51, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 104.93, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 102.71, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 101.52, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 132.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.22, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.25, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 101.96, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.56, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 101.9, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 100.69, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 102.47, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 103.25, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 102.0, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.9, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 131.43, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.65, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 113.02, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.83, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 103.2, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 104.55, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 106.48, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 117.56, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 132.05, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.93, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 114.89, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 105.59, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 105.66, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 104.21, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 103.44, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 106.11, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.23, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.89, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 118.15, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 111.29, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 105.91, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.0, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.05, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 102.21, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 102.19, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 104.84, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 104.68, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 105.35, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 108.73, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 113.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 113.06, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 104.34, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 102.04, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.39, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 100.76, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.12, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.53, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.6, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 101.67, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 107.26, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.37, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 99.85, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 98.38, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.11, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.23, 'Secreto': False}]</t>
+  </si>
+  <si>
+    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.96, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.27, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 16.62, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 16.7, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 13.66, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 9.06, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.7, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 14.4, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 7.62, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 8.8, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.33, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 12.34, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -17.61, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -15.71, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -13.17, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -13.66, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -10.14, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -8.78, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -6.3, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -9.14, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 3.69, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 3.49, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 2.5700000000000003, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 3.46, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.52, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 2.89, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 4.02, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 6.05, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 5.88, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 6.16, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 2.17, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 8.43, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 8.08, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 10.79, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 10.31, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 9.64, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 8.57, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.96, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 4.44, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.61, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 7.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 8.47, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 6.08, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 8.64, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 6.2, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 4.14, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 6.35, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.1, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.57, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 5.89, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 4.9, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.29, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 5.36, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 8.38, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 4.33, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 7.68, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 5.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 6.82, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.01, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 5.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 0.22, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 2.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -1.13, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 1.05, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': -0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.26, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 0.41000000000000003, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 3.39, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 4.28, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.05, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.5700000000000001, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 1.6099999999999999, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.29, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 1.97, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.81, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -5.11, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -5.24, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -6.59, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.17, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.45, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.43, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.24, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -4.2, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -4.8100000000000005, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -2.56, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.63, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.16, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 3.38, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -0.79, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 0.24, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.74, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.86, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 1.52, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 8.33, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 3.24, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 0.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 1.9500000000000002, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.21, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 4.13, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 5.61, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 1.5, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.65, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 3.62, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 4.29, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.25, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.96, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 3.7199999999999998, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 1.6600000000000001, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 0.96, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 0.91, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.18, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 1.45, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': -0.01, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.9300000000000002, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.08, 'Secreto': False}]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +141,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,255 +457,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FK_Unidad</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FK_Escala</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EOT16057</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Nacional. Total tarifa. Dato base.</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
         <v>133</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 159.83, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 188.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 157.63, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 132.17, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 133.25, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 124.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 133.56, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 133.81, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 132.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 143.43, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 171.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 168.2, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 143.08, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 166.01, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 138.5, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 115.57, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 114.52, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 117.12, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 121.32, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 119.08, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 115.09, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 127.99, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 154.79, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 153.5, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 138.11, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 129.39, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 137.63, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 135.37, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 135.84, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 134.8, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 144.24, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 170.34, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 165.99, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 150.46, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 137.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 135.53, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 137.36, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 134.56, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 143.26, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 166.89, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 164.72, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 148.93, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 138.14, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 127.82, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 127.07, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 132.55, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 131.52, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 132.83, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 131.49, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 130.15, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 139.62, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 163.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 160.33, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 145.27, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 133.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 127.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 118.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 124.73, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 121.51, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 122.47, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 120.92, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 132.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 155.08, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 150.37, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 136.5, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 125.4, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 118.21, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 114.91, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 119.34, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 116.85, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 119.64, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 115.71, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 116.93, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 124.31, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 146.93, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 141.9, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 129.61, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 119.49, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 114.15, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 108.43, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 113.37, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 110.85, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 111.05, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 119.98, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 143.32, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 137.65, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 123.78, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 112.48, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.64, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.89, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 106.72, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 135.97, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 131.81, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 117.98, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.39, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 103.51, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 107.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.64, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 130.5, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.76, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 107.76, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 108.28, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 103.87, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 107.13, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.36, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 109.79, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 105.43, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 131.65, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.13, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 112.18, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 103.61, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 107.79, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 102.73, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 103.62, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 107.24, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 104.13, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.06, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 129.67, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.93, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 104.65, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 106.17, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.54, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 102.06, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 104.86, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 105.89, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.83, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 128.48, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.67, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 114.04, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 109.23, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 105.39, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 109.02, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 116.12, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 129.7, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 116.13, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 112.27, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 109.03, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 106.96, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 105.23, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 107.92, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 106.86, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.84, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 119.63, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 113.43, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 107.8, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.41, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 103.69, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 103.17, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 106.04, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 109.85, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.6, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 114.66, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.42, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.81, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 101.79, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.41, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.57, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 104.35, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.95, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 99.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 101.48, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.61, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.15, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EOT16058</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nacional. Total tarifa. Tasa de variación interanual.</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
         <v>135</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.7, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.51, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 13.81, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.36, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 16.35, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.54, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 10.09, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 12.37, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 15.19, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.06, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.57, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.26, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -10.68, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.79, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -13.48, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -12.2, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -12.34, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -14.62, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.26, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.13, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -7.53, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -8.21, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 1.94, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 0.68, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.07, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.78, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 1.03, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.12, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.41, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 3.8200000000000003, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 7.46, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 8.23, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 8.46, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 7.03, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 5.04, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.23, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.62, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 6.43, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.48, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.36, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 6.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.54, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 4.95, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.98, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 4.78, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 4.38, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 3.61, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 3.09, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 4.71, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 6.23, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.17, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.7800000000000002, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 4.47, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 6.36, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.91, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.87, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.39, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 5.4, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.92, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -0.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -0.22, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 1.4100000000000001, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 1.83, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.92, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 0.59, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.34, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.31, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.5, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.1, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 1.6800000000000002, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.99, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 0.18, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.2800000000000002, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -1.08, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -3.87, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -4.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -4.41, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.5300000000000002, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.31, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.33, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.69, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.8, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.87, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 6.59, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 1.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.77, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 1.19, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 6.18, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.34, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 4.53, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.83, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 2.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 1.57, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.5600000000000005, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.59, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.37, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.01, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 1.04, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.57, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.01, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>EOT8078</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Nacional. Tarifa normal. Dato base.</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>133</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 153.75, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 148.23, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 153.59, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 116.35, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 126.77, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.22, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 129.33, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 125.62, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 132.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 152.97, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 150.83, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 136.25, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 129.53, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 134.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 101.8, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 105.98, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 109.42, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 117.69, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 112.37, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 106.15, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 117.13, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 137.97, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 139.97, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 126.22, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 121.15, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 130.24, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 124.86, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 125.3, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 133.79, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 151.94, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 152.88, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 141.39, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 127.92, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 111.17, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 129.86, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 124.43, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 132.97, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 127.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 124.51, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 131.36, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 148.72, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 151.16, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 140.44, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 129.43, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 123.38, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 112.84, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 126.89, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 128.47, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 124.53, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 124.8, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 129.75, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 149.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 150.95, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.9, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 105.77, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 121.47, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 116.02, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.28, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.39, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 117.55, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 124.25, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 141.0, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 141.7, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 131.94, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 120.8, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 115.75, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 111.99, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 117.06, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 117.53, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 134.37, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 134.79, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 126.58, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 117.11, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 112.58, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 99.66, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 112.12, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 115.07, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 114.72, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 122.25, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.94, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 112.14, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 96.6, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 107.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.07, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.47, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 127.79, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 127.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 118.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.33, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 107.55, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 97.57, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 108.16, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.29, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 114.75, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 106.73, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 110.2, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 128.45, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 129.09, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 117.4, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 110.16, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 112.77, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 100.17, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 108.07, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 108.61, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 109.17, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 128.7, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 115.01, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 105.72, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 112.93, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 98.75, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 105.47, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 111.56, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 107.4, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 109.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 108.46, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 127.06, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 127.39, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 113.71, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 101.45, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 104.01, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 104.49, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 108.95, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 108.44, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 111.88, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 112.29, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 126.36, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 125.7, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 116.31, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 111.4, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 114.59, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 106.92, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 106.43, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 109.45, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 112.69, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 114.51, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 128.08, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.34, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 118.37, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 115.47, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 115.4, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 109.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 108.27, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.14, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 113.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 115.25, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 121.92, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 117.33, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 111.82, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 112.99, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 106.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 104.79, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 108.18, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.9, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 109.25, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 115.68, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 116.99, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 113.82, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 111.35, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 109.77, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 103.74, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.12, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.32, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 103.76, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 103.79, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.29, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 109.36, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 105.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 100.48, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 102.76, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 100.36, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 99.18, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EOT8079</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Nacional. Tarifa normal. Tasa de variación interanual.</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
         <v>135</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 12.84, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 14.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 14.23, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.29, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 19.62, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 11.79, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 19.89, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 13.39, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 7.8100000000000005, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 6.15, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -8.05, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -9.68, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -9.63, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -10.0, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -15.28, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -12.45, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.19, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.44, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -6.74, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': -2.64, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': -2.05, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': -1.69, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.63, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 1.8399999999999999, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 2.66, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.32, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.5, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 1.98, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 1.24, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -0.32, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 6.68, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 4.46, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 6.8100000000000005, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 7.92, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.8100000000000005, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.53, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 5.85, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.04, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 0.97, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 5.72, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 4.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 4.24, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.12, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.82, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 1.73, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 1.75, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 2.45, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 3.54, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 0.39, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 2.71, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 3.18, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.25, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.7800000000000002, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -1.0, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.21, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -3.27, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -0.85, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.4, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 0.72, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.31, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -1.67, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -4.63, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -2.59, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.75, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': -1.03, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -1.6600000000000001, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.19, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 0.44, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.21, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.7199999999999998, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 0.58, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.66, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.29, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 1.37, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': -0.6900000000000001, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.67, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 1.15, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.4, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.96, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -2.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -3.42, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.55, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.34, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -2.46, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -3.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -0.76, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -1.82, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.77, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -1.94, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -1.34, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.1, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.74, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -3.52, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -0.7000000000000001, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -3.2, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.7000000000000002, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': -0.64, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 4.98, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 5.46, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 3.02, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 5.28, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 7.6, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 6.69, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 9.24, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 3.1, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 2.55, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.48, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -0.97, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EOT8080</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Nacional. Tarifa fin de semana. Dato base.</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
         <v>133</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 129.17, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 141.69, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 137.32, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 131.4, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 116.6, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.03, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 117.94, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 111.41, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 133.86, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 146.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 129.23, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 120.11, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 127.71, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 126.06, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 118.87, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 109.55, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 108.52, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 102.43, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 131.63, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 117.21, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 128.05, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 124.34, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 125.39, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 120.23, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 132.21, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 134.15, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 146.98, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 128.41, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 129.64, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 135.14, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 116.51, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 121.44, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 122.32, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 118.6, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 131.59, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 134.42, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 144.85, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 128.36, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 123.92, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 130.4, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 119.55, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 122.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 118.43, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 122.82, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 131.78, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 133.28, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 146.62, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 127.59, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 122.3, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.09, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 115.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 123.97, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 118.27, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.34, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.46, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 130.3, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 121.41, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 138.4, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 119.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 124.61, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 119.45, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 118.62, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 121.25, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 113.5, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 114.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 118.8, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 130.64, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 120.43, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 115.08, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 110.3, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 116.67, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 109.53, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 110.58, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 118.32, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 116.64, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 127.3, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 111.26, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 109.49, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.55, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 111.18, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 102.12, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 111.52, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 107.96, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 106.45, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 106.52, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 109.69, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 109.57, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 112.66, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 104.23, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 112.4, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 102.58, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 122.36, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 109.5, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 110.18, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 115.69, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 110.32, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 110.09, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 101.86, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 112.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 104.82, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 122.5, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 114.81, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 106.67, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 109.01, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 111.22, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 117.62, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 114.8, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 113.26, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 105.7, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 115.79, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 107.86, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 122.4, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 115.41, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.49, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.46, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 108.15, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 114.26, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 113.8, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 112.85, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 113.03, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 114.27, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 108.38, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 118.47, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 106.61, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.67, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 117.73, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 119.14, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 118.67, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 106.18, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 118.79, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 115.38, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 111.74, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 114.24, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 119.95, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 121.14, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 120.45, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.78, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.11, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 116.23, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 110.03, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 117.59, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 112.65, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 104.51, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.51, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 111.16, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 112.68, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 110.93, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.3, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 110.21, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 104.64, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 105.71, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.59, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 111.63, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 111.49, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 110.69, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 107.44, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 111.25, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 111.24, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 114.07, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 110.9, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.04, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.15, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 107.02, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 108.4, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EOT8081</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Nacional. Tarifa fin de semana. Tasa de variación interanual.</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
         <v>135</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 10.94, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 8.94, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 10.54, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 6.44, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.0, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 12.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 8.76, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 11.55, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 10.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.19, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 1.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -14.45, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -12.72, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -16.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -14.8, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -16.89, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.55, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -10.44, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.72, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -10.63, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.51, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.47000000000000003, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.04, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.84, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': -2.02, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.15, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 0.86, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -1.21, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.61, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 2.73, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 3.14, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': -1.43, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 1.13, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 9.77, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.93, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 7.34, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 2.49, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 3.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': -2.85, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 4.69, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.9699999999999998, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 4.64, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 7.5600000000000005, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.8, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 3.63, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.92, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 1.32, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.96, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.11, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 1.51, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': -0.54, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 2.27, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 7.69, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.06, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.85, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.8, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -4.44, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -1.31, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -2.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.78, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 5.59, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': -2.47, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.68, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': -2.14, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.11, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': -5.64, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 2.37, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 2.7, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': -0.9400000000000001, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': -3.9, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': -3.64, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': -2.8200000000000003, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': -0.77, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.46, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 0.8, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.66, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -0.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 0.8300000000000001, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -1.11, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -2.55, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.94, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -4.49, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -4.9, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.01, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.81, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -3.81, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.18, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -2.9, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -3.85, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -6.03, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.75, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -2.86, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.85, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.65, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 1.02, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 3.76, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 2.43, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 5.67, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 6.93, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 7.91, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 7.5, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 6.03, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 0.65, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': -0.91, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 0.03, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': -0.81, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 2.88, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.45, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': -0.28, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 2.01, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 5.37, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 2.14, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 6.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 8.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.91, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 1.48, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 0.99, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>EOT8082</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Nacional. Tarifa touroperador. Dato base.</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
         <v>133</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 173.13, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 227.61, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 170.31, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 146.24, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 137.58, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 133.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 138.97, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 143.75, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 134.6, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 150.93, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 196.63, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 195.04, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 154.63, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 200.95, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 146.03, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 122.67, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 126.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 125.07, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 138.72, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 178.11, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 172.75, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 147.51, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 144.79, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 146.91, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 145.53, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 145.89, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 145.18, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 144.86, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 154.37, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 195.25, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 184.36, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 162.35, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 148.27, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 139.64, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 141.15, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 140.62, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 143.0, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 141.55, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 140.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 154.68, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 191.28, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 183.4, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 161.27, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 148.89, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 134.72, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 138.27, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 138.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 139.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 137.72, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 137.42, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 136.08, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 148.7, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 180.37, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 173.22, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 155.84, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 140.24, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 127.52, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 125.59, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 124.85, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 125.34, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 125.33, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 141.68, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 172.71, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 162.48, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 143.31, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 131.0, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 121.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 121.38, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 120.55, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 120.53, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 119.46, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 119.82, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 130.41, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 162.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 151.83, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 135.25, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 122.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 116.73, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 114.13, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 114.7, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 114.17, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.73, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 112.81, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 112.72, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 124.32, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 157.49, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 145.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 127.38, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 114.29, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 109.51, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 109.18, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.87, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 108.13, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 108.19, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 118.57, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 146.26, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 137.87, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 119.25, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 104.73, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 106.8, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.1, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 108.01, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.63, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.05, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 113.72, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 140.06, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 134.03, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.83, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 106.68, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 105.69, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 106.79, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 108.17, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 104.92, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 104.36, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 111.39, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 135.46, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.69, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 111.09, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 104.58, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.38, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 102.51, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 104.93, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 102.71, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 101.52, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 132.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.22, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.25, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 101.96, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.56, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 101.9, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 100.69, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 102.47, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 103.25, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 102.0, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.9, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 131.43, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.65, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 113.02, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.83, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 103.2, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 104.55, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 106.48, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 117.56, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 132.05, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.93, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 114.89, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 105.59, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 105.66, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 104.21, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 103.44, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 106.11, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.23, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.89, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 118.15, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 111.29, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 105.91, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.0, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.05, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 102.21, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 102.19, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 104.84, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 104.68, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 105.35, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 108.73, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 113.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 113.06, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 104.34, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 102.04, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.39, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 100.76, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.12, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.53, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.6, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 101.67, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 107.26, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.37, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 99.85, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 98.38, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.11, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.23, 'Secreto': False}]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EOT8083</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Nacional. Tarifa touroperador. Tasa de variación interanual.</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
         <v>135</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.96, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.27, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 16.62, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 16.7, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 13.66, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 9.06, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.7, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 14.4, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 7.62, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 8.8, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.33, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 12.34, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -17.61, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -15.71, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -13.17, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -13.66, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -10.14, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -8.78, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -6.3, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -9.14, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 3.69, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 3.49, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 2.5700000000000003, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 3.46, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.52, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 2.89, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 4.02, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 6.05, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 5.88, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 6.16, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 2.17, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 8.43, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 8.08, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 10.79, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 10.31, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 9.64, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 8.57, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.96, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 4.44, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.61, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 7.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 8.47, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 6.08, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 8.64, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 6.2, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 4.14, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 6.35, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.1, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.57, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 5.89, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 4.9, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.29, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 5.36, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 8.38, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 4.33, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 7.68, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 5.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 6.82, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.01, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 5.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 0.22, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 2.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -1.13, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 1.05, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': -0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.26, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 0.41000000000000003, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 3.39, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 4.28, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.05, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.5700000000000001, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 1.6099999999999999, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.29, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 1.97, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.81, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -5.11, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -5.24, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -6.59, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.17, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.45, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.43, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.24, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -4.2, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -4.8100000000000005, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -2.56, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.63, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.16, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 3.38, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -0.79, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 0.24, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.74, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.86, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 1.52, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 8.33, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 3.24, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 0.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 1.9500000000000002, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.21, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 4.13, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 5.61, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 1.5, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.65, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 3.62, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 4.29, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.25, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.96, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 3.7199999999999998, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 1.6600000000000001, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 0.96, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 0.91, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.18, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 1.45, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': -0.01, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.9300000000000002, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.08, 'Secreto': False}]</t>
-        </is>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/ipap_rate.xlsx
+++ b/data/raw/ipap_rate.xlsx
@@ -1,132 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>FK_Unidad</t>
-  </si>
-  <si>
-    <t>FK_Escala</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>EOT16057</t>
-  </si>
-  <si>
-    <t>EOT16058</t>
-  </si>
-  <si>
-    <t>EOT8078</t>
-  </si>
-  <si>
-    <t>EOT8079</t>
-  </si>
-  <si>
-    <t>EOT8080</t>
-  </si>
-  <si>
-    <t>EOT8081</t>
-  </si>
-  <si>
-    <t>EOT8082</t>
-  </si>
-  <si>
-    <t>EOT8083</t>
-  </si>
-  <si>
-    <t>Nacional. Total tarifa. Dato base.</t>
-  </si>
-  <si>
-    <t>Nacional. Total tarifa. Tasa de variación interanual.</t>
-  </si>
-  <si>
-    <t>Nacional. Tarifa normal. Dato base.</t>
-  </si>
-  <si>
-    <t>Nacional. Tarifa normal. Tasa de variación interanual.</t>
-  </si>
-  <si>
-    <t>Nacional. Tarifa fin de semana. Dato base.</t>
-  </si>
-  <si>
-    <t>Nacional. Tarifa fin de semana. Tasa de variación interanual.</t>
-  </si>
-  <si>
-    <t>Nacional. Tarifa touroperador. Dato base.</t>
-  </si>
-  <si>
-    <t>Nacional. Tarifa touroperador. Tasa de variación interanual.</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 159.83, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 188.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 157.63, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 132.17, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 133.25, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 124.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 133.56, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 133.81, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 132.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 143.43, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 171.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 168.2, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 143.08, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 166.01, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 138.5, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 115.57, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 114.52, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 117.12, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 121.32, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 119.08, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 115.09, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 127.99, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 154.79, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 153.5, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 138.11, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 129.39, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 137.63, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 135.37, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 135.84, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 134.8, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 144.24, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 170.34, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 165.99, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 150.46, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 137.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 135.53, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 137.36, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 134.56, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 143.26, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 166.89, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 164.72, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 148.93, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 138.14, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 127.82, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 127.07, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 132.55, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 131.52, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 132.83, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 131.49, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 130.15, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 139.62, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 163.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 160.33, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 145.27, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 133.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 127.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 118.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 124.73, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 121.51, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 122.47, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 120.92, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 132.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 155.08, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 150.37, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 136.5, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 125.4, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 118.21, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 114.91, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 119.34, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 116.85, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 119.64, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 115.71, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 116.93, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 124.31, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 146.93, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 141.9, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 129.61, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 119.49, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 114.15, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 108.43, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 113.37, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 110.85, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 111.05, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 119.98, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 143.32, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 137.65, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 123.78, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 112.48, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.64, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.89, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 106.72, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 135.97, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 131.81, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 117.98, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.39, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 103.51, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 107.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.64, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 130.5, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.76, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 107.76, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 108.28, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 103.87, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 107.13, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.36, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 109.79, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 105.43, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 131.65, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.13, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 112.18, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 103.61, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 107.79, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 102.73, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 103.62, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 107.24, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 104.13, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.06, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 129.67, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.93, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 104.65, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 106.17, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.54, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 102.06, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 104.86, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 105.89, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.83, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 128.48, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.67, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 114.04, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 109.23, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 105.39, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 109.02, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 116.12, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 129.7, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 116.13, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 112.27, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 109.03, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 106.96, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 105.23, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 107.92, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 106.86, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.84, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 119.63, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 113.43, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 107.8, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.41, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 103.69, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 103.17, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 106.04, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 109.85, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.6, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 114.66, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.42, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.81, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 101.79, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.41, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.57, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 104.35, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.95, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 99.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 101.48, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.61, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.15, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.7, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.51, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 13.81, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.36, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 16.35, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.54, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 10.09, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 12.37, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 15.19, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.06, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.57, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.26, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -10.68, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.79, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -13.48, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -12.2, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -12.34, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -14.62, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.26, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.13, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -7.53, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -8.21, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 1.94, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 0.68, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.07, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.78, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 1.03, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.12, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.41, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 3.8200000000000003, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 7.46, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 8.23, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 8.46, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 7.03, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 5.04, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.23, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.62, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 6.43, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.48, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.36, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 6.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.54, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 4.95, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.98, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 4.78, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 4.38, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 3.61, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 3.09, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 4.71, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 6.23, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.17, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.7800000000000002, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 4.47, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 6.36, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.91, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.87, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.39, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 5.4, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.92, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -0.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -0.22, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 1.4100000000000001, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 1.83, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.92, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 0.59, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.34, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.31, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.5, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.1, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 1.6800000000000002, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.99, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 0.18, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.2800000000000002, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -1.08, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -3.87, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -4.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -4.41, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.5300000000000002, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.31, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.33, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.69, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.8, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.87, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 6.59, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 1.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.77, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 1.19, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 6.18, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.34, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 4.53, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.83, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 2.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 1.57, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.5600000000000005, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.59, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.37, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.01, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 1.04, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.57, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.01, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 153.75, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 148.23, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 153.59, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 116.35, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 126.77, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.22, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 129.33, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 125.62, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 132.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 152.97, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 150.83, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 136.25, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 129.53, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 134.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 101.8, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 105.98, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 109.42, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 117.69, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 112.37, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 106.15, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 117.13, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 137.97, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 139.97, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 126.22, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 121.15, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 130.24, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 124.86, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 125.3, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 133.79, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 151.94, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 152.88, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 141.39, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 127.92, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 111.17, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 129.86, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 124.43, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 132.97, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 127.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 124.51, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 131.36, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 148.72, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 151.16, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 140.44, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 129.43, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 123.38, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 112.84, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 126.89, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 128.47, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 124.53, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 124.8, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 129.75, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 149.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 150.95, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.9, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 105.77, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 121.47, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 116.02, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.28, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.39, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 117.55, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 124.25, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 141.0, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 141.7, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 131.94, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 120.8, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 115.75, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 111.99, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 117.06, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 117.53, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 134.37, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 134.79, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 126.58, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 117.11, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 112.58, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 99.66, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 112.12, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 115.07, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 114.72, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 122.25, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.94, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 112.14, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 96.6, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 107.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.07, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.47, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 127.79, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 127.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 118.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.33, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 107.55, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 97.57, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 108.16, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.29, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 114.75, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 106.73, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 110.2, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 128.45, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 129.09, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 117.4, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 110.16, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 112.77, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 100.17, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 108.07, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 108.61, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 109.17, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 128.7, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 115.01, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 105.72, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 112.93, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 98.75, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 105.47, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 111.56, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 107.4, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 109.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 108.46, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 127.06, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 127.39, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 113.71, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 101.45, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 104.01, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 104.49, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 108.95, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 108.44, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 111.88, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 112.29, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 126.36, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 125.7, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 116.31, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 111.4, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 114.59, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 106.92, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 106.43, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 109.45, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 112.69, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 114.51, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 128.08, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.34, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 118.37, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 115.47, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 115.4, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 109.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 108.27, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.14, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 113.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 115.25, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 121.92, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 117.33, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 111.82, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 112.99, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 106.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 104.79, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 108.18, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.9, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 109.25, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 115.68, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 116.99, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 113.82, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 111.35, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 109.77, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 103.74, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.12, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.32, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 103.76, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 103.79, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.29, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 109.36, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 105.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 100.48, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 102.76, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 100.36, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 99.18, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 12.84, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 14.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 14.23, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.29, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 19.62, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 11.79, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 19.89, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 13.39, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 7.8100000000000005, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 6.15, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -8.05, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -9.68, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -9.63, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -10.0, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -15.28, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -12.45, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.19, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.44, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -6.74, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': -2.64, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': -2.05, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': -1.69, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.63, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 1.8399999999999999, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 2.66, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.32, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.5, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 1.98, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 1.24, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -0.32, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 6.68, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 4.46, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 6.8100000000000005, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 7.92, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.8100000000000005, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.53, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 5.85, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.04, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 0.97, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 5.72, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 4.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 4.24, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.12, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.82, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 1.73, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 1.75, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 2.45, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 3.54, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 0.39, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 2.71, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 3.18, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.25, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.7800000000000002, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -1.0, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.21, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -3.27, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -0.85, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.4, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 0.72, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.31, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -1.67, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -4.63, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -2.59, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.75, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': -1.03, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -1.6600000000000001, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.19, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 0.44, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.21, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.7199999999999998, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 0.58, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.66, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.29, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 1.37, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': -0.6900000000000001, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.67, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 1.15, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.4, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.96, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -2.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -3.42, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.55, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.34, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -2.46, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -3.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -0.76, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -1.82, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.77, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -1.94, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -1.34, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.1, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.74, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -3.52, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -0.7000000000000001, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -3.2, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.7000000000000002, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': -0.64, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 4.98, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 5.46, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 3.02, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 5.28, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 7.6, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 6.69, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 9.24, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 3.1, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 2.55, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.48, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -0.97, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 129.17, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 141.69, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 137.32, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 131.4, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 116.6, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.03, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 117.94, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 111.41, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 133.86, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 146.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 129.23, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 120.11, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 127.71, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 126.06, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 118.87, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 109.55, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 108.52, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 102.43, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 131.63, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 117.21, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 128.05, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 124.34, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 125.39, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 120.23, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 132.21, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 134.15, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 146.98, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 128.41, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 129.64, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 135.14, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 116.51, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 121.44, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 122.32, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 118.6, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 131.59, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 134.42, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 144.85, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 128.36, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 123.92, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 130.4, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 119.55, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 122.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 118.43, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 122.82, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 131.78, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 133.28, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 146.62, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 127.59, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 122.3, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.09, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 115.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 123.97, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 118.27, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.34, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.46, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 130.3, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 121.41, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 138.4, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 119.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 124.61, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 119.45, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 118.62, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 121.25, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 113.5, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 114.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 118.8, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 130.64, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 120.43, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 115.08, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 110.3, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 116.67, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 109.53, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 110.58, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 118.32, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 116.64, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 127.3, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 111.26, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 109.49, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.55, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 111.18, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 102.12, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 111.52, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 107.96, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 106.45, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 106.52, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 109.69, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 109.57, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 112.66, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 104.23, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 112.4, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 102.58, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 122.36, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 109.5, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 110.18, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 115.69, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 110.32, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 110.09, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 101.86, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 112.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 104.82, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 122.5, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 114.81, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 106.67, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 109.01, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 111.22, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 117.62, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 114.8, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 113.26, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 105.7, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 115.79, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 107.86, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 122.4, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 115.41, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.49, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.46, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 108.15, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 114.26, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 113.8, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 112.85, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 113.03, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 114.27, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 108.38, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 118.47, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 106.61, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.67, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 117.73, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 119.14, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 118.67, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 106.18, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 118.79, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 115.38, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 111.74, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 114.24, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 119.95, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 121.14, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 120.45, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.78, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.11, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 116.23, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 110.03, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 117.59, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 112.65, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 104.51, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.51, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 111.16, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 112.68, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 110.93, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.3, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 110.21, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 104.64, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 105.71, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.59, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 111.63, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 111.49, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 110.69, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 107.44, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 111.25, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 111.24, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 114.07, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 110.9, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.04, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.15, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 107.02, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 108.4, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 10.94, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 8.94, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 10.54, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 6.44, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.0, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 12.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 8.76, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 11.55, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 10.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.19, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 1.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -14.45, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -12.72, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -16.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -14.8, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -16.89, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.55, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -10.44, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.72, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -10.63, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.51, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.47000000000000003, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.04, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.84, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': -2.02, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.15, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 0.86, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -1.21, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.61, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 2.73, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 3.14, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': -1.43, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 1.13, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 9.77, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.93, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 7.34, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 2.49, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 3.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': -2.85, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 4.69, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.9699999999999998, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 4.64, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 7.5600000000000005, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.8, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 3.63, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.92, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 1.32, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.96, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.11, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 1.51, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': -0.54, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 2.27, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 7.69, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.06, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.85, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.8, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -4.44, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -1.31, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -2.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.78, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 5.59, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': -2.47, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.68, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': -2.14, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.11, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': -5.64, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 2.37, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 2.7, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': -0.9400000000000001, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': -3.9, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': -3.64, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': -2.8200000000000003, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': -0.77, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.46, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 0.8, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.66, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -0.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 0.8300000000000001, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -1.11, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -2.55, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.94, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -4.49, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -4.9, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.01, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.81, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -3.81, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.18, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -2.9, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -3.85, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -6.03, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.75, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -2.86, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.85, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.65, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 1.02, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 3.76, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 2.43, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 5.67, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 6.93, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 7.91, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 7.5, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 6.03, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 0.65, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': -0.91, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 0.03, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': -0.81, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 2.88, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.45, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': -0.28, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 2.01, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 5.37, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 2.14, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 6.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 8.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.91, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 1.48, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 0.99, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 173.13, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 227.61, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 170.31, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 146.24, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 137.58, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 133.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 138.97, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 143.75, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 134.6, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 150.93, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 196.63, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 195.04, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 154.63, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 200.95, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 146.03, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 122.67, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 126.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 125.07, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 138.72, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 178.11, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 172.75, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 147.51, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 144.79, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 146.91, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 145.53, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 145.89, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 145.18, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 144.86, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 154.37, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 195.25, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 184.36, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 162.35, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 148.27, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 139.64, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 141.15, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 140.62, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 143.0, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 141.55, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 140.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 154.68, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 191.28, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 183.4, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 161.27, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 148.89, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 134.72, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 138.27, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 138.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 139.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 137.72, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 137.42, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 136.08, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 148.7, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 180.37, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 173.22, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 155.84, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 140.24, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 127.52, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 125.59, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 124.85, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 125.34, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 125.33, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 141.68, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 172.71, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 162.48, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 143.31, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 131.0, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 121.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 121.38, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 120.55, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 120.53, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 119.46, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 119.82, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 130.41, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 162.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 151.83, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 135.25, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 122.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 116.73, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 114.13, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 114.7, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 114.17, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.73, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 112.81, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 112.72, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 124.32, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 157.49, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 145.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 127.38, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 114.29, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 109.51, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 109.18, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.87, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 108.13, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 108.19, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 118.57, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 146.26, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 137.87, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 119.25, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 104.73, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 106.8, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.1, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 108.01, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.63, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.05, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 113.72, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 140.06, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 134.03, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.83, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 106.68, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 105.69, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 106.79, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 108.17, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 104.92, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 104.36, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 111.39, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 135.46, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.69, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 111.09, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 104.58, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.38, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 102.51, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 104.93, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 102.71, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 101.52, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 132.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.22, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.25, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 101.96, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.56, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 101.9, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 100.69, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 102.47, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 103.25, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 102.0, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.9, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 131.43, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.65, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 113.02, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.83, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 103.2, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 104.55, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 106.48, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 117.56, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 132.05, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.93, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 114.89, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 105.59, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 105.66, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 104.21, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 103.44, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 106.11, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.23, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.89, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 118.15, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 111.29, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 105.91, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.0, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.05, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 102.21, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 102.19, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 104.84, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 104.68, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 105.35, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 108.73, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 113.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 113.06, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 104.34, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 102.04, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.39, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 100.76, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.12, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.53, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.6, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 101.67, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 107.26, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.37, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 99.85, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 98.38, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.11, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.23, 'Secreto': False}]</t>
-  </si>
-  <si>
-    <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.96, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.27, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 16.62, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 16.7, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 13.66, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 9.06, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.7, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 14.4, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 7.62, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 8.8, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.33, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 12.34, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -17.61, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -15.71, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -13.17, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -13.66, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -10.14, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -8.78, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -6.3, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -9.14, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 3.69, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 3.49, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 2.5700000000000003, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 3.46, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.52, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 2.89, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 4.02, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 6.05, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 5.88, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 6.16, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 2.17, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 8.43, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 8.08, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 10.79, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 10.31, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 9.64, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 8.57, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.96, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 4.44, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.61, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 7.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 8.47, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 6.08, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 8.64, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 6.2, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 4.14, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 6.35, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.1, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.57, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 5.89, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 4.9, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.29, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 5.36, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 8.38, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 4.33, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 7.68, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 5.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 6.82, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.01, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 5.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 0.22, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 2.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -1.13, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 1.05, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': -0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.26, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 0.41000000000000003, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 3.39, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 4.28, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.05, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.5700000000000001, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 1.6099999999999999, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.29, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 1.97, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.81, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -5.11, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -5.24, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -6.59, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.17, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.45, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.43, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.24, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -4.2, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -4.8100000000000005, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -2.56, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.63, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.16, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 3.38, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -0.79, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 0.24, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.74, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.86, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 1.52, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 8.33, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 3.24, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 0.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 1.9500000000000002, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.21, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 4.13, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 5.61, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 1.5, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.65, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 3.62, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 4.29, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.25, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.96, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 3.7199999999999998, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 1.6600000000000001, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 0.96, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 0.91, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.18, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 1.45, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': -0.01, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.9300000000000002, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.08, 'Secreto': False}]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,191 +420,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FK_Unidad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FK_Escala</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EOT16057</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nacional. Total tarifa. Dato base.</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 159.83, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 188.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 157.63, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 132.17, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 133.25, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 124.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 133.56, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 133.81, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 132.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 143.43, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 171.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 168.2, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 143.08, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 166.01, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 138.5, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 115.57, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 114.52, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 117.12, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 121.32, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 119.08, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 115.09, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 127.99, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 154.79, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 153.5, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 138.11, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 129.39, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 137.63, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 135.37, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 135.84, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 134.8, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 144.24, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 170.34, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 165.99, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 150.46, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 137.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 131.8, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 135.53, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 137.36, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 134.56, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 143.26, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 166.89, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 164.72, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 148.93, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 138.14, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 127.82, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 127.07, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 132.55, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 131.52, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 132.83, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 131.49, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 130.15, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 139.62, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 163.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 160.33, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 145.27, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 133.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 127.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 118.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 124.73, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 121.51, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 122.47, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 120.92, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 132.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 155.08, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 150.37, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 136.5, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 125.4, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 118.21, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 114.91, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 119.34, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 116.85, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 119.64, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 115.71, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 116.93, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 124.31, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 146.93, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 141.9, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 129.61, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 119.49, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 114.15, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 108.43, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 113.37, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 110.85, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 111.05, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 119.98, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 143.32, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 137.65, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 123.78, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 112.48, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.64, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.89, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 106.72, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 135.97, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 131.81, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 117.98, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.39, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 103.51, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 107.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.64, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 133.53, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 130.5, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.76, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 107.76, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 108.28, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 103.87, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 107.13, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.36, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 109.79, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 105.43, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 110.13, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 131.65, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.13, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 112.18, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 103.61, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 107.79, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 102.73, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 103.62, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 107.24, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 104.13, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.06, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 129.67, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.93, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 104.65, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 106.17, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.54, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 102.06, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 104.86, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 105.89, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.83, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 128.48, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.67, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 114.04, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 109.23, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 105.39, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 109.02, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 116.12, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 129.7, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 116.13, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 112.27, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 109.03, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 106.96, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 105.23, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 107.92, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 106.86, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.84, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 119.63, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 113.43, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 107.8, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.41, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 103.69, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 103.17, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 106.04, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 106.94, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 109.85, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.6, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 114.66, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.42, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.81, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 101.79, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.41, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.57, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 102.64, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 104.35, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.95, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 99.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 101.48, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.61, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.15, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EOT16058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nacional. Total tarifa. Tasa de variación interanual.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>135</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.7, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.51, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 13.81, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.36, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 16.35, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.54, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 10.09, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 12.37, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 15.19, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.06, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.57, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.26, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -10.68, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.79, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -13.48, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -12.2, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -12.34, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -14.62, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.26, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.13, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -7.53, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -8.21, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 1.94, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 0.68, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.07, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.78, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 1.03, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.12, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.41, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 3.8200000000000003, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 0.6000000000000001, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 7.46, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 8.23, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 8.46, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 7.03, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 5.04, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.23, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.62, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 6.43, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.48, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.36, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 6.92, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.54, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 4.95, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.98, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 4.78, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 4.38, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 3.61, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.52, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 3.09, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 4.71, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 6.23, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.17, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.7800000000000002, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 4.47, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 6.36, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.91, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.87, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.39, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 5.4, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.92, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -0.43, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -0.22, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 1.4100000000000001, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 1.83, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.92, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 0.59, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.34, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.31, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.5, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 1.43, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.0, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.1, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 1.6800000000000002, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.99, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 0.18, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.53, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.2800000000000002, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -1.08, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.01, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -3.87, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -4.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -4.41, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.5300000000000002, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.61, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.31, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.33, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.69, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.8, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.87, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 6.59, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 1.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 2.0, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.77, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 1.19, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 6.18, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.34, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 4.53, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.98, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 5.32, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.83, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.99, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 2.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 1.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 1.57, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.5600000000000005, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.2, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.59, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.37, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.01, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 1.04, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.57, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.01, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EOT8078</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nacional. Tarifa normal. Dato base.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>133</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 153.75, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 148.23, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 153.59, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 116.35, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 126.77, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.22, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 129.33, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 125.62, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 127.26, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 132.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 152.97, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 150.83, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 136.25, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 129.53, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 134.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 101.8, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 105.98, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 109.42, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 117.69, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 112.37, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 106.15, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 117.13, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 137.97, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 139.97, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 126.22, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 121.15, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 130.24, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 124.86, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 125.3, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 133.79, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 151.94, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 152.88, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 141.39, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 127.92, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 126.67, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 111.17, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 129.86, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 124.43, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 132.97, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 127.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 124.51, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 131.36, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 148.72, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 151.16, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 140.44, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 129.43, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 123.38, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 112.84, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 126.89, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 121.61, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 128.47, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 124.53, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 124.8, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 129.75, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 149.19, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 150.95, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 138.18, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.9, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 105.77, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 121.47, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 116.02, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.28, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.39, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 117.55, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 124.25, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 141.0, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 141.7, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 131.94, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 120.8, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 115.75, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 104.76, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 111.99, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 117.06, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 111.07, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 117.53, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 134.37, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 134.79, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 126.58, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 117.11, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 112.58, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 99.66, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 112.12, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 115.07, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 114.72, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 132.01, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 122.25, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.94, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 112.14, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 96.6, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 107.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.07, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 105.78, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 106.47, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 110.99, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 127.79, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 127.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 118.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 108.33, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 107.55, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 97.57, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 108.16, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.29, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 114.75, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 106.73, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 106.89, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 110.2, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 128.45, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 129.09, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 117.4, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 110.16, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 112.77, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 100.17, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 108.07, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 113.91, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 108.61, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 109.17, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 128.7, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 115.01, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 105.72, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 112.93, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 98.75, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 105.21, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 105.47, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 111.56, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 107.4, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 109.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 108.46, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 127.06, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 127.39, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.85, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 113.71, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 101.45, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 104.01, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 104.49, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 108.95, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 108.44, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 111.88, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 112.29, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 126.36, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 125.7, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 116.31, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 111.4, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 114.59, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.75, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 106.92, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 106.43, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 109.45, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 112.69, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 114.51, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 128.08, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.34, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 118.37, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 115.47, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 115.4, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 108.21, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 109.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 108.27, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.14, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 113.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 115.25, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 121.92, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 117.33, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 111.82, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 112.99, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 106.87, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 104.79, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 108.18, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.9, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 109.25, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 111.67, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 115.68, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 116.99, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 113.82, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 111.35, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 109.77, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 103.74, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.26, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.12, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.32, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 103.76, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 103.79, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.29, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 109.65, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 109.36, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 105.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 100.48, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 102.76, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 100.36, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 99.18, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EOT8079</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nacional. Tarifa normal. Tasa de variación interanual.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 12.84, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 14.44, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 14.23, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 14.29, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 19.62, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 5.29, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 11.79, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 19.89, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 13.39, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 7.8100000000000005, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 6.15, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -8.05, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -16.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -9.68, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -9.63, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -10.0, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -15.28, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -12.45, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -9.19, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.44, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -6.74, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': -2.64, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': -2.05, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': -1.69, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.63, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 1.8399999999999999, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 2.66, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.32, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.5, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 1.98, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 1.24, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -0.32, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 6.68, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 4.46, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 6.8100000000000005, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 7.92, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.8100000000000005, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.53, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 4.73, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 5.85, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 7.04, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 0.97, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.38, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 2.74, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 5.72, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 4.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 4.24, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 2.8200000000000003, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 5.12, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.82, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 1.73, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 1.75, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 2.45, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 3.54, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 0.39, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 3.89, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 2.71, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 3.19, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 3.18, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.25, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.7800000000000002, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 3.33, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -1.0, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.21, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -1.16, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -3.27, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -0.85, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.4, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 0.72, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.51, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.9500000000000001, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 1.31, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -1.67, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -4.63, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -2.59, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.75, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': -1.03, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -1.6600000000000001, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 0.9500000000000001, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.19, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 0.44, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.21, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.7199999999999998, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 0.58, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 0.66, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.29, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 1.37, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': -0.6900000000000001, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.67, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 1.15, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 0.93, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.4, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.96, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -2.3, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -3.42, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 0.55, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 1.34, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -2.46, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -3.19, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -0.76, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -1.82, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.77, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -0.72, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -1.94, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -1.34, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -1.1, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.74, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -3.52, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -0.7000000000000001, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -3.2, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.9500000000000002, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.7000000000000002, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': -0.66, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': -0.64, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 4.98, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 3.6, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 2.04, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 3.84, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 3.2, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 5.46, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 0.42, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.77, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 3.02, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 4.91, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 5.28, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 7.6, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 6.69, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 5.13, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 9.24, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 3.1, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 1.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 2.55, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.08, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.48, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 3.16, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -0.93, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -0.97, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EOT8080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nacional. Tarifa fin de semana. Dato base.</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>133</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 129.17, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 141.69, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 137.32, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 131.4, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 116.6, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 115.03, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 117.94, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 111.41, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 133.86, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 146.45, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 129.23, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 120.11, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 127.71, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 126.06, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 118.87, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 109.55, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 108.52, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 104.48, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 102.43, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 118.65, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 131.63, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 117.21, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 128.05, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 124.34, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 125.39, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 120.23, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 132.21, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 134.15, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 146.98, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 128.41, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 129.64, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 135.14, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 124.24, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 116.51, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 121.44, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 122.32, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 118.6, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 131.59, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 134.42, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 144.85, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 128.36, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 123.92, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 130.4, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 119.55, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 122.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 118.43, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 122.82, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 131.78, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 133.28, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 146.62, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 127.59, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 122.3, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 126.93, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 123.09, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 115.24, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 123.97, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 118.27, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 120.34, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 115.46, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 130.3, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 121.41, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 138.4, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 118.86, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 119.32, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 124.61, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 119.45, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 118.62, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 121.25, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 113.5, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 114.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 118.8, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 130.64, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 120.43, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 115.08, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 110.3, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 116.67, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 109.53, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 110.58, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 104.43, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 118.32, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 116.64, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 127.3, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 111.26, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 109.49, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 111.55, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.71, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 114.93, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 104.71, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 111.18, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 102.12, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 111.52, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 121.68, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 107.96, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 106.45, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 106.52, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 108.31, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 109.69, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 115.86, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 109.57, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 112.66, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 104.23, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 112.4, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 102.58, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 122.36, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 108.34, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 109.5, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 110.18, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 115.69, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 110.32, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 110.09, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 101.86, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 112.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 104.82, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 122.5, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 114.81, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 106.67, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 106.97, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 109.01, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 111.22, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 117.62, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 114.8, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 113.26, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 105.7, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 115.79, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 107.86, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 122.4, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 115.41, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.49, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 107.46, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 108.15, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 114.26, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 113.8, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 112.85, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 113.03, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 114.27, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 108.38, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 118.47, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 110.94, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 106.61, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.67, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 110.98, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 117.73, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 119.14, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 118.67, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 114.18, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 106.18, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 118.79, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 111.95, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 122.0, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 115.38, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 113.45, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 111.74, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 114.24, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 119.95, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 121.14, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 120.45, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 111.78, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.11, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 116.23, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 110.03, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 117.59, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 112.65, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 107.36, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 104.51, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.51, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 111.16, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 112.68, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 113.6, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 111.06, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 106.08, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 116.2, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 110.93, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 114.3, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 110.21, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 104.64, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 105.71, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 104.59, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 111.63, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 111.49, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 110.69, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 107.44, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 103.23, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 111.25, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 111.24, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 114.07, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 110.9, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.04, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 101.15, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 105.94, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 107.02, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 108.4, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EOT8081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nacional. Tarifa fin de semana. Tasa de variación interanual.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>135</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 10.94, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 8.94, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 10.54, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 6.44, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 6.0, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 12.89, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 8.76, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 11.55, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 12.81, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 10.47, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 9.19, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 3.67, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 1.46, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -14.45, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -12.72, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -16.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -14.8, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -16.89, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -11.55, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -10.44, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -8.72, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -10.63, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 2.39, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.51, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 1.38, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 0.47000000000000003, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 1.47, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.04, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 3.64, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': -1.97, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.84, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': -2.02, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': -0.15, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 0.86, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': -1.21, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 0.61, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 2.73, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': -2.87, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 3.14, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': -1.43, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 0.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 2.06, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 1.13, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 9.77, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 5.93, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 7.34, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 2.49, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 3.05, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': -2.85, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 2.25, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 4.69, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 3.9699999999999998, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 5.94, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 4.64, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 7.5600000000000005, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 3.47, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 3.8, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 7.54, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 3.92, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 3.63, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 6.27, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 5.92, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 1.85, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 1.32, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.96, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 3.94, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 3.11, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 1.51, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': -0.54, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 2.27, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 6.1, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 7.69, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 4.62, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 3.06, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 2.85, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': -2.48, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': -0.8, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': -4.44, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': -1.31, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': -2.06, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': -0.78, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 5.59, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': -0.55, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': -0.36, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': -2.47, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': -2.7199999999999998, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -3.25, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': -0.45, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 0.15, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.68, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 2.34, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': -0.1, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': -2.14, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': -0.11, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': -5.64, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 2.33, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 2.37, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 2.7, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': -0.9400000000000001, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': -1.6400000000000001, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': -3.9, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': -2.8, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': -3.64, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': -3.15, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': -2.8200000000000003, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 0.08, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': -0.77, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.46, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 0.8, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': -2.66, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 3.36, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 0.2, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 1.33, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -0.48, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 3.32, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 4.03, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 0.8300000000000001, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -1.11, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -2.55, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.94, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -4.49, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -4.9, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -1.01, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.81, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -3.81, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -3.18, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -2.9, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -3.85, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -6.03, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.75, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': -2.86, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -1.85, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': -1.65, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -1.48, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 1.02, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 2.2, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 1.74, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 3.76, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 2.43, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 5.67, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 6.93, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 7.91, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 7.5, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 6.03, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 0.65, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': -0.91, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 0.03, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': -0.81, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 2.88, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 2.22, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 2.6, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': -1.1400000000000001, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 0.88, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': -0.41000000000000003, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 2.63, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 3.37, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 4.45, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': -0.28, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': -0.63, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.5700000000000003, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 2.01, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 5.37, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 2.11, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 0.75, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 2.14, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 4.51, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 6.3, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 8.25, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 2.16, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 2.91, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 2.92, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 1.6400000000000001, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 5.27, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 1.48, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 0.99, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EOT8082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nacional. Tarifa touroperador. Dato base.</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>133</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 173.13, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 227.61, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 170.31, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 146.24, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 137.58, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 133.78, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 138.97, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 143.75, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 134.6, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 150.93, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 196.63, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 195.04, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 154.63, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': 200.95, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 146.03, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': 125.32, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': 121.04, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': 122.67, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': 126.68, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': 125.66, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': 125.07, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': 138.72, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': 178.11, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': 172.75, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': 147.51, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 144.79, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 146.91, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 145.53, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 145.89, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 145.18, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 144.86, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': 154.37, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 195.25, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 184.36, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 162.35, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': 148.27, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 139.18, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 139.64, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 141.15, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 140.62, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 143.0, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 141.55, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 140.01, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 154.68, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 191.28, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 183.4, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 161.27, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 148.89, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 134.72, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 138.27, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 138.2, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 139.14, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 137.72, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 137.42, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 136.08, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 148.7, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 180.37, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 173.22, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 155.84, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 140.24, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 131.86, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 127.52, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 127.87, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 125.59, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 124.85, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 125.34, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 125.33, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 141.68, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 172.71, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 162.48, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 143.31, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 131.0, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 121.56, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 121.38, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 120.55, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 120.53, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 122.57, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 119.46, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 119.82, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 130.41, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 162.63, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 151.83, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 135.25, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 122.62, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 116.73, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 114.13, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 114.7, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 114.17, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 114.73, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 112.81, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 112.72, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 124.32, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 157.49, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 145.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 127.38, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 114.29, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 110.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 109.51, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 109.18, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 109.87, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 108.13, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 108.19, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 118.57, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 146.26, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 137.87, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 119.25, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 109.88, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': 104.73, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 106.8, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': 106.77, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': 105.1, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': 108.01, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 105.63, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 105.05, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 113.72, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 140.06, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 134.03, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 115.83, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 106.68, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 105.93, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 105.69, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 106.79, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 108.17, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 104.92, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 104.36, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 111.39, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 135.46, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 128.69, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 111.09, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': 102.53, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 105.34, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 104.58, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 104.38, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 102.51, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 104.93, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': 102.71, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': 101.52, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': 109.62, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 132.93, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 125.22, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': 107.25, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': 102.83, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': 101.96, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': 102.56, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': 101.9, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': 100.69, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': 102.47, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': 103.25, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': 102.0, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': 111.9, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': 131.43, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': 124.65, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': 113.02, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': 108.51, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 109.15, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': 104.83, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 104.46, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': 103.2, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': 105.32, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': 104.55, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 106.48, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 117.56, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 132.05, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 127.93, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 114.89, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 110.91, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 105.59, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 105.66, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 104.21, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 103.44, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 106.11, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 105.45, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': 104.89, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 113.23, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 121.89, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 118.15, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 111.29, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 105.91, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 105.0, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 104.05, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 102.21, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 102.19, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 104.84, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 104.68, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 105.35, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 108.73, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 113.9, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 113.06, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 105.38, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 104.34, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 102.04, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': 100.39, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 100.76, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 101.12, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 103.53, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 102.6, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 101.67, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 104.26, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 108.22, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 107.26, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 101.37, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 99.85, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': 98.38, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': 100.66, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': 99.11, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': 100.23, 'Secreto': False}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EOT8083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nacional. Tarifa touroperador. Tasa de variación interanual.</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>135</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>133</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>135</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>133</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>135</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>133</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>135</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[{'Fecha': 1654034400000, 'FK_TipoDato': 2, 'FK_Periodo': 6, 'Anyo': 2022, 'Valor': 11.96, 'Secreto': False}, {'Fecha': 1651356000000, 'FK_TipoDato': 2, 'FK_Periodo': 5, 'Anyo': 2022, 'Valor': 13.27, 'Secreto': False}, {'Fecha': 1648764000000, 'FK_TipoDato': 2, 'FK_Periodo': 4, 'Anyo': 2022, 'Valor': 16.62, 'Secreto': False}, {'Fecha': 1646089200000, 'FK_TipoDato': 2, 'FK_Periodo': 3, 'Anyo': 2022, 'Valor': 16.7, 'Secreto': False}, {'Fecha': 1643670000000, 'FK_TipoDato': 2, 'FK_Periodo': 2, 'Anyo': 2022, 'Valor': 13.66, 'Secreto': False}, {'Fecha': 1640991600000, 'FK_TipoDato': 2, 'FK_Periodo': 1, 'Anyo': 2022, 'Valor': 9.06, 'Secreto': False}, {'Fecha': 1638313200000, 'FK_TipoDato': 2, 'FK_Periodo': 12, 'Anyo': 2021, 'Valor': 9.7, 'Secreto': False}, {'Fecha': 1635721200000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2021, 'Valor': 14.4, 'Secreto': False}, {'Fecha': 1633039200000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2021, 'Valor': 7.62, 'Secreto': False}, {'Fecha': 1630447200000, 'FK_TipoDato': 2, 'FK_Periodo': 9, 'Anyo': 2021, 'Valor': 8.8, 'Secreto': False}, {'Fecha': 1627768800000, 'FK_TipoDato': 2, 'FK_Periodo': 8, 'Anyo': 2021, 'Valor': 9.33, 'Secreto': False}, {'Fecha': 1625090400000, 'FK_TipoDato': 2, 'FK_Periodo': 7, 'Anyo': 2021, 'Valor': 12.34, 'Secreto': False}, {'Fecha': 1622498400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2021, 'Valor': 4.83, 'Secreto': False}, {'Fecha': 1619820000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2021, 'Valor': None, 'Secreto': False}, {'Fecha': 1617228000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2021, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1614553200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2021, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1612134000000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2021, 'Valor': -17.61, 'Secreto': False}, {'Fecha': 1609455600000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2021, 'Valor': -15.71, 'Secreto': False}, {'Fecha': 1606777200000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2020, 'Valor': -13.17, 'Secreto': False}, {'Fecha': 1604185200000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2020, 'Valor': -13.45, 'Secreto': False}, {'Fecha': 1601503200000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2020, 'Valor': -13.66, 'Secreto': False}, {'Fecha': 1598911200000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2020, 'Valor': -10.14, 'Secreto': False}, {'Fecha': 1596232800000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2020, 'Valor': -8.78, 'Secreto': False}, {'Fecha': 1593554400000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2020, 'Valor': -6.3, 'Secreto': False}, {'Fecha': 1590962400000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2020, 'Valor': -9.14, 'Secreto': False}, {'Fecha': 1588284000000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2020, 'Valor': None, 'Secreto': False, 'Notas': [{'texto': 'Dato no disponible por cierre debido a crisis COVID19', 'Fk_TipoNota': 1, 'textoTipo': None}]}, {'Fecha': 1585692000000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2020, 'Valor': 0.0, 'Secreto': False}, {'Fecha': 1583017200000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2020, 'Valor': 3.69, 'Secreto': False}, {'Fecha': 1580511600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2020, 'Valor': 4.08, 'Secreto': False}, {'Fecha': 1577833200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2020, 'Valor': 3.49, 'Secreto': False}, {'Fecha': 1575154800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2019, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1572562800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2019, 'Valor': 2.5700000000000003, 'Secreto': False}, {'Fecha': 1569880800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2019, 'Valor': 3.46, 'Secreto': False}, {'Fecha': 1567288800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2019, 'Valor': -0.2, 'Secreto': False}, {'Fecha': 1564610400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2019, 'Valor': 2.08, 'Secreto': False}, {'Fecha': 1561932000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2019, 'Valor': 0.52, 'Secreto': False}, {'Fecha': 1559340000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2019, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1556661600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2019, 'Valor': -0.42, 'Secreto': False}, {'Fecha': 1554069600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2019, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1551394800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2019, 'Valor': 0.99, 'Secreto': False}, {'Fecha': 1548975600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2019, 'Valor': 2.13, 'Secreto': False}, {'Fecha': 1546297200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2019, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1543618800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2018, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1541026800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2018, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1538344800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2018, 'Valor': 2.89, 'Secreto': False}, {'Fecha': 1535752800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2018, 'Valor': 4.02, 'Secreto': False}, {'Fecha': 1533074400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2018, 'Valor': 6.05, 'Secreto': False}, {'Fecha': 1530396000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2018, 'Valor': 5.88, 'Secreto': False}, {'Fecha': 1527804000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2018, 'Valor': 3.48, 'Secreto': False}, {'Fecha': 1525125600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2018, 'Valor': 6.16, 'Secreto': False}, {'Fecha': 1522533600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2018, 'Valor': 2.17, 'Secreto': False}, {'Fecha': 1519858800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2018, 'Valor': 8.43, 'Secreto': False}, {'Fecha': 1517439600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2018, 'Valor': 8.08, 'Secreto': False}, {'Fecha': 1514761200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2018, 'Valor': 10.79, 'Secreto': False}, {'Fecha': 1512082800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2017, 'Valor': 10.31, 'Secreto': False}, {'Fecha': 1509490800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2017, 'Valor': 9.64, 'Secreto': False}, {'Fecha': 1506808800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2017, 'Valor': 8.57, 'Secreto': False}, {'Fecha': 1504216800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2017, 'Valor': 4.96, 'Secreto': False}, {'Fecha': 1501538400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2017, 'Valor': 4.44, 'Secreto': False}, {'Fecha': 1498860000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2017, 'Valor': 6.61, 'Secreto': False}, {'Fecha': 1496268000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2017, 'Valor': 8.74, 'Secreto': False}, {'Fecha': 1493589600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2017, 'Valor': 7.05, 'Secreto': False}, {'Fecha': 1490997600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2017, 'Valor': 8.47, 'Secreto': False}, {'Fecha': 1488322800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2017, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1485903600000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2017, 'Valor': 6.08, 'Secreto': False}, {'Fecha': 1483225200000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2017, 'Valor': 4.2, 'Secreto': False}, {'Fecha': 1480546800000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2016, 'Valor': 1.8599999999999999, 'Secreto': False}, {'Fecha': 1477954800000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2016, 'Valor': 4.93, 'Secreto': False}, {'Fecha': 1475272800000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2016, 'Valor': 4.61, 'Secreto': False}, {'Fecha': 1472680800000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2016, 'Valor': 8.64, 'Secreto': False}, {'Fecha': 1470002400000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2016, 'Valor': 6.2, 'Secreto': False}, {'Fecha': 1467324000000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2016, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1464732000000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2016, 'Valor': 5.97, 'Secreto': False}, {'Fecha': 1462053600000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2016, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1459461600000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2016, 'Valor': 4.14, 'Secreto': False}, {'Fecha': 1456786800000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2016, 'Valor': 6.35, 'Secreto': False}, {'Fecha': 1454281200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2016, 'Valor': 5.1, 'Secreto': False}, {'Fecha': 1451602800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2016, 'Valor': 5.57, 'Secreto': False}, {'Fecha': 1448924400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2015, 'Valor': 6.83, 'Secreto': False}, {'Fecha': 1446332400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2015, 'Valor': 5.89, 'Secreto': False}, {'Fecha': 1443650400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2015, 'Valor': 6.29, 'Secreto': False}, {'Fecha': 1441058400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2015, 'Valor': 4.9, 'Secreto': False}, {'Fecha': 1438380000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2015, 'Valor': 3.26, 'Secreto': False}, {'Fecha': 1435701600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2015, 'Valor': 4.27, 'Secreto': False}, {'Fecha': 1433109600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2015, 'Valor': 6.17, 'Secreto': False}, {'Fecha': 1430431200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2015, 'Valor': 7.29, 'Secreto': False}, {'Fecha': 1427839200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2015, 'Valor': 5.36, 'Secreto': False}, {'Fecha': 1425164400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2015, 'Valor': 4.22, 'Secreto': False}, {'Fecha': 1422745200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2015, 'Valor': 5.06, 'Secreto': False}, {'Fecha': 1420066800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2015, 'Valor': 8.38, 'Secreto': False}, {'Fecha': 1417388400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2014, 'Valor': 4.42, 'Secreto': False}, {'Fecha': 1414796400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2014, 'Valor': 4.33, 'Secreto': False}, {'Fecha': 1412114400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2014, 'Valor': 4.19, 'Secreto': False}, {'Fecha': 1409522400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2014, 'Valor': 4.84, 'Secreto': False}, {'Fecha': 1406844000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2014, 'Valor': 7.68, 'Secreto': False}, {'Fecha': 1404165600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2014, 'Valor': 5.62, 'Secreto': False}, {'Fecha': 1401573600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2014, 'Valor': 6.82, 'Secreto': False}, {'Fecha': 1398895200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2014, 'Valor': 4.01, 'Secreto': False}, {'Fecha': 1396303200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2014, 'Valor': 5.79, 'Secreto': False}, {'Fecha': 1393628400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2014, 'Valor': 2.54, 'Secreto': False}, {'Fecha': 1391209200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2014, 'Valor': 2.26, 'Secreto': False}, {'Fecha': 1388530800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2014, 'Valor': 0.22, 'Secreto': False}, {'Fecha': 1385852400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2013, 'Valor': 1.72, 'Secreto': False}, {'Fecha': 1383260400000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2013, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1380578400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2013, 'Valor': 2.99, 'Secreto': False}, {'Fecha': 1377986400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2013, 'Valor': 4.26, 'Secreto': False}, {'Fecha': 1375308000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2013, 'Valor': 4.43, 'Secreto': False}, {'Fecha': 1372629600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2013, 'Valor': 2.86, 'Secreto': False}, {'Fecha': 1370037600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2013, 'Valor': 2.94, 'Secreto': False}, {'Fecha': 1367359200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2013, 'Valor': 3.0, 'Secreto': False}, {'Fecha': 1364767200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2013, 'Valor': -1.13, 'Secreto': False}, {'Fecha': 1362092400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2013, 'Valor': 1.05, 'Secreto': False}, {'Fecha': 1359673200000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2013, 'Valor': -0.02, 'Secreto': False}, {'Fecha': 1356994800000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2013, 'Valor': -0.26, 'Secreto': False}, {'Fecha': 1354316400000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2012, 'Valor': -0.14, 'Secreto': False}, {'Fecha': 1351724400000, 'FK_TipoDato': 2, 'FK_Periodo': 11, 'Anyo': 2012, 'Valor': 0.67, 'Secreto': False}, {'Fecha': 1349042400000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2012, 'Valor': 0.41000000000000003, 'Secreto': False}, {'Fecha': 1346450400000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2012, 'Valor': 2.1, 'Secreto': False}, {'Fecha': 1343772000000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2012, 'Valor': 3.39, 'Secreto': False}, {'Fecha': 1341093600000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2012, 'Valor': 4.15, 'Secreto': False}, {'Fecha': 1338501600000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2012, 'Valor': 4.28, 'Secreto': False}, {'Fecha': 1335823200000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2012, 'Valor': 4.05, 'Secreto': False}, {'Fecha': 1333231200000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2012, 'Valor': 0.5700000000000001, 'Secreto': False}, {'Fecha': 1330556400000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2012, 'Valor': 1.07, 'Secreto': False}, {'Fecha': 1328050800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2012, 'Valor': 2.3, 'Secreto': False}, {'Fecha': 1325372400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2012, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1322694000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2011, 'Valor': 3.08, 'Secreto': False}, {'Fecha': 1320102000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2011, 'Valor': 2.15, 'Secreto': False}, {'Fecha': 1317420000000, 'FK_TipoDato': 2, 'FK_Periodo': 10, 'Anyo': 2011, 'Valor': 2.79, 'Secreto': False}, {'Fecha': 1314828000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2011, 'Valor': 1.6099999999999999, 'Secreto': False}, {'Fecha': 1312149600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2011, 'Valor': 1.9, 'Secreto': False}, {'Fecha': 1309471200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2011, 'Valor': 2.77, 'Secreto': False}, {'Fecha': 1306879200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2011, 'Valor': 3.58, 'Secreto': False}, {'Fecha': 1304200800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2011, 'Valor': -0.29, 'Secreto': False}, {'Fecha': 1301608800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2011, 'Valor': 3.31, 'Secreto': False}, {'Fecha': 1298934000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2011, 'Valor': 1.97, 'Secreto': False}, {'Fecha': 1296514800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2011, 'Valor': 2.44, 'Secreto': False}, {'Fecha': 1293836400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2011, 'Valor': 1.81, 'Secreto': False}, {'Fecha': 1291158000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2010, 'Valor': 2.41, 'Secreto': False}, {'Fecha': 1288566000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2010, 'Valor': -0.52, 'Secreto': False}, {'Fecha': 1285884000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2010, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1283292000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2010, 'Valor': -2.04, 'Secreto': False}, {'Fecha': 1280613600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2010, 'Valor': 1.1400000000000001, 'Secreto': False}, {'Fecha': 1277935200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2010, 'Valor': 0.46, 'Secreto': False}, {'Fecha': 1275343200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2010, 'Valor': -5.11, 'Secreto': False}, {'Fecha': 1272664800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2010, 'Valor': -5.24, 'Secreto': False}, {'Fecha': 1270072800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2010, 'Valor': -6.59, 'Secreto': False}, {'Fecha': 1267398000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2010, 'Valor': -2.17, 'Secreto': False}, {'Fecha': 1264978800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2010, 'Valor': -2.45, 'Secreto': False}, {'Fecha': 1262300400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2010, 'Valor': -2.43, 'Secreto': False}, {'Fecha': 1259622000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2009, 'Valor': -2.71, 'Secreto': False}, {'Fecha': 1257030000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2009, 'Valor': -1.24, 'Secreto': False}, {'Fecha': 1254348000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2009, 'Valor': -4.2, 'Secreto': False}, {'Fecha': 1251756000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2009, 'Valor': -4.8100000000000005, 'Secreto': False}, {'Fecha': 1249077600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2009, 'Valor': -0.47000000000000003, 'Secreto': False}, {'Fecha': 1246399200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2009, 'Valor': -2.56, 'Secreto': False}, {'Fecha': 1243807200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2009, 'Valor': -1.63, 'Secreto': False}, {'Fecha': 1241128800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2009, 'Valor': -2.16, 'Secreto': False}, {'Fecha': 1238536800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2009, 'Valor': 3.38, 'Secreto': False}, {'Fecha': 1235862000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2009, 'Valor': -0.79, 'Secreto': False}, {'Fecha': 1233442800000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2009, 'Valor': 0.24, 'Secreto': False}, {'Fecha': 1230764400000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2009, 'Valor': -0.23, 'Secreto': False}, {'Fecha': 1228086000000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2008, 'Valor': -0.74, 'Secreto': False}, {'Fecha': 1225494000000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2008, 'Valor': -0.86, 'Secreto': False}, {'Fecha': 1222812000000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2008, 'Valor': 1.52, 'Secreto': False}, {'Fecha': 1220220000000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2008, 'Valor': 3.83, 'Secreto': False}, {'Fecha': 1217541600000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2008, 'Valor': 8.33, 'Secreto': False}, {'Fecha': 1214863200000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2008, 'Valor': 8.28, 'Secreto': False}, {'Fecha': 1212271200000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2008, 'Valor': 3.24, 'Secreto': False}, {'Fecha': 1209592800000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2008, 'Valor': 4.72, 'Secreto': False}, {'Fecha': 1207000800000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2008, 'Valor': 0.56, 'Secreto': False}, {'Fecha': 1204326000000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2008, 'Valor': 1.55, 'Secreto': False}, {'Fecha': 1201820400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2008, 'Valor': 1.9500000000000002, 'Secreto': False}, {'Fecha': 1199142000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2008, 'Valor': 1.22, 'Secreto': False}, {'Fecha': 1196463600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2007, 'Valor': 1.21, 'Secreto': False}, {'Fecha': 1193871600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2007, 'Valor': 0.74, 'Secreto': False}, {'Fecha': 1191189600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2007, 'Valor': -0.44, 'Secreto': False}, {'Fecha': 1188597600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2007, 'Valor': 4.13, 'Secreto': False}, {'Fecha': 1185919200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2007, 'Valor': 7.01, 'Secreto': False}, {'Fecha': 1183240800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2007, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1180648800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2007, 'Valor': 5.61, 'Secreto': False}, {'Fecha': 1177970400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2007, 'Valor': 1.5, 'Secreto': False}, {'Fecha': 1175378400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2007, 'Valor': 2.9, 'Secreto': False}, {'Fecha': 1172703600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2007, 'Valor': 3.65, 'Secreto': False}, {'Fecha': 1170284400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2007, 'Valor': 1.44, 'Secreto': False}, {'Fecha': 1167606000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2007, 'Valor': 1.06, 'Secreto': False}, {'Fecha': 1164927600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2006, 'Valor': 1.27, 'Secreto': False}, {'Fecha': 1162335600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2006, 'Valor': 2.02, 'Secreto': False}, {'Fecha': 1159653600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2006, 'Valor': 3.62, 'Secreto': False}, {'Fecha': 1157061600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2006, 'Valor': 4.29, 'Secreto': False}, {'Fecha': 1154383200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2006, 'Valor': 5.25, 'Secreto': False}, {'Fecha': 1151704800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2006, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1149112800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2006, 'Valor': 3.96, 'Secreto': False}, {'Fecha': 1146434400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2006, 'Valor': 4.5, 'Secreto': False}, {'Fecha': 1143842400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2006, 'Valor': 3.7199999999999998, 'Secreto': False}, {'Fecha': 1141167600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2006, 'Valor': -0.27, 'Secreto': False}, {'Fecha': 1138748400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2006, 'Valor': 1.6600000000000001, 'Secreto': False}, {'Fecha': 1136070000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2006, 'Valor': 0.89, 'Secreto': False}, {'Fecha': 1133391600000, 'FK_TipoDato': 1, 'FK_Periodo': 12, 'Anyo': 2005, 'Valor': 1.3900000000000001, 'Secreto': False}, {'Fecha': 1130799600000, 'FK_TipoDato': 1, 'FK_Periodo': 11, 'Anyo': 2005, 'Valor': 0.96, 'Secreto': False}, {'Fecha': 1128117600000, 'FK_TipoDato': 1, 'FK_Periodo': 10, 'Anyo': 2005, 'Valor': 0.91, 'Secreto': False}, {'Fecha': 1125525600000, 'FK_TipoDato': 1, 'FK_Periodo': 9, 'Anyo': 2005, 'Valor': 2.18, 'Secreto': False}, {'Fecha': 1122847200000, 'FK_TipoDato': 1, 'FK_Periodo': 8, 'Anyo': 2005, 'Valor': 4.77, 'Secreto': False}, {'Fecha': 1120168800000, 'FK_TipoDato': 1, 'FK_Periodo': 7, 'Anyo': 2005, 'Valor': 5.41, 'Secreto': False}, {'Fecha': 1117576800000, 'FK_TipoDato': 1, 'FK_Periodo': 6, 'Anyo': 2005, 'Valor': 1.45, 'Secreto': False}, {'Fecha': 1114898400000, 'FK_TipoDato': 1, 'FK_Periodo': 5, 'Anyo': 2005, 'Valor': 0.19, 'Secreto': False}, {'Fecha': 1112306400000, 'FK_TipoDato': 1, 'FK_Periodo': 4, 'Anyo': 2005, 'Valor': -3.06, 'Secreto': False}, {'Fecha': 1109631600000, 'FK_TipoDato': 1, 'FK_Periodo': 3, 'Anyo': 2005, 'Valor': -0.01, 'Secreto': False}, {'Fecha': 1107212400000, 'FK_TipoDato': 1, 'FK_Periodo': 2, 'Anyo': 2005, 'Valor': -1.9300000000000002, 'Secreto': False}, {'Fecha': 1104534000000, 'FK_TipoDato': 1, 'FK_Periodo': 1, 'Anyo': 2005, 'Valor': -1.08, 'Secreto': False}]</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>